--- a/spec/Robbie_Robot_Shop_Scrum.xlsx
+++ b/spec/Robbie_Robot_Shop_Scrum.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="627"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="627"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="151">
   <si>
     <t>Product Name:</t>
   </si>
@@ -70,9 +70,6 @@
   </si>
   <si>
     <t>Sprint 4 Left</t>
-  </si>
-  <si>
-    <t>Due</t>
   </si>
   <si>
     <t>Sprint 5 Left</t>
@@ -476,16 +473,16 @@
     <t>Description</t>
   </si>
   <si>
-    <t>In-Progress</t>
-  </si>
-  <si>
-    <t>ROBOTU</t>
-  </si>
-  <si>
     <t>Jalyn Gilliam</t>
   </si>
   <si>
     <t>JG</t>
+  </si>
+  <si>
+    <t>Not-Implemented</t>
+  </si>
+  <si>
+    <t>ROBOTREE</t>
   </si>
 </sst>
 </file>
@@ -875,11 +872,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="2132897200"/>
-        <c:axId val="-2131499664"/>
+        <c:axId val="2117923504"/>
+        <c:axId val="2114996176"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2132897200"/>
+        <c:axId val="2117923504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -916,7 +913,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="-2131499664"/>
+        <c:crossAx val="2114996176"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -924,7 +921,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2131499664"/>
+        <c:axId val="2114996176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -971,7 +968,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="2132897200"/>
+        <c:crossAx val="2117923504"/>
         <c:crossesAt val="0.0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1121,11 +1118,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-2134114000"/>
-        <c:axId val="-2141729504"/>
+        <c:axId val="2117943584"/>
+        <c:axId val="2117952544"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2134114000"/>
+        <c:axId val="2117943584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1161,7 +1158,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="-2141729504"/>
+        <c:crossAx val="2117952544"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1169,7 +1166,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2141729504"/>
+        <c:axId val="2117952544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1215,7 +1212,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="-2134114000"/>
+        <c:crossAx val="2117943584"/>
         <c:crossesAt val="0.0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1258,8 +1255,8 @@
       <xdr:rowOff>38160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>1418040</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>579840</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>144720</xdr:rowOff>
     </xdr:to>
@@ -1615,16 +1612,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I71"/>
+  <dimension ref="A1:I69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.1640625" customWidth="1"/>
     <col min="5" max="5" width="8.83203125" style="1"/>
+    <col min="7" max="7" width="18.83203125" customWidth="1"/>
+    <col min="8" max="8" width="27.1640625" customWidth="1"/>
+    <col min="9" max="9" width="26" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
@@ -1632,7 +1633,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -1668,7 +1669,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -1682,7 +1683,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -1870,7 +1871,7 @@
         <v>6</v>
       </c>
       <c r="B21" s="6">
-        <f>COUNT(B34:B149)</f>
+        <f>COUNT(B34:B147)</f>
         <v>36</v>
       </c>
       <c r="C21" s="6" t="s">
@@ -1965,7 +1966,7 @@
     </row>
     <row r="26" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B26" s="2">
         <f t="shared" si="0"/>
@@ -1985,7 +1986,7 @@
     </row>
     <row r="27" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B27" s="2">
         <f t="shared" si="0"/>
@@ -2005,14 +2006,14 @@
     </row>
     <row r="28" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B28" s="2">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D28" s="8">
         <f t="shared" si="1"/>
@@ -2025,14 +2026,14 @@
     </row>
     <row r="29" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B29" s="2">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D29" s="8">
         <v>42696</v>
@@ -2059,7 +2060,7 @@
       <c r="D31" s="2"/>
       <c r="E31" s="3"/>
       <c r="F31" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
@@ -2071,41 +2072,41 @@
       <c r="D32" s="2"/>
       <c r="E32" s="3"/>
       <c r="F32" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A33" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B33" s="10" t="s">
         <v>21</v>
-      </c>
-      <c r="B33" s="10" t="s">
-        <v>22</v>
       </c>
       <c r="C33" s="10" t="s">
         <v>7</v>
       </c>
       <c r="D33" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E33" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E33" s="11" t="s">
+      <c r="F33" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="F33" s="10" t="s">
+      <c r="G33" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="G33" s="10" t="s">
+      <c r="H33" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="H33" s="10" t="s">
+      <c r="I33" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I33" s="10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="78" x14ac:dyDescent="0.15">
+    </row>
+    <row r="34" spans="1:9" ht="26" x14ac:dyDescent="0.15">
       <c r="B34">
         <v>1</v>
       </c>
@@ -2119,19 +2120,19 @@
         <v>1</v>
       </c>
       <c r="F34" t="s">
+        <v>28</v>
+      </c>
+      <c r="G34" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="G34" s="12" t="s">
+      <c r="H34" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="H34" s="12" t="s">
+      <c r="I34" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="I34" s="12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" s="13" customFormat="1" ht="78" x14ac:dyDescent="0.15">
+    </row>
+    <row r="35" spans="1:9" s="13" customFormat="1" ht="26" x14ac:dyDescent="0.15">
       <c r="B35" s="13">
         <v>2</v>
       </c>
@@ -2145,19 +2146,19 @@
         <v>1</v>
       </c>
       <c r="F35" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="G35" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="G35" s="15" t="s">
+      <c r="H35" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="H35" s="15" t="s">
-        <v>35</v>
-      </c>
       <c r="I35" s="15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="208" x14ac:dyDescent="0.15">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="52" x14ac:dyDescent="0.15">
       <c r="B36">
         <v>3</v>
       </c>
@@ -2171,24 +2172,24 @@
         <v>1</v>
       </c>
       <c r="F36" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G36" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="H36" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="I36" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="H36" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="I36" s="12" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" s="13" customFormat="1" ht="104" x14ac:dyDescent="0.15">
+    </row>
+    <row r="37" spans="1:9" s="13" customFormat="1" ht="26" x14ac:dyDescent="0.15">
       <c r="B37" s="13">
         <v>4</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>148</v>
+        <v>10</v>
       </c>
       <c r="D37" s="13">
         <v>1</v>
@@ -2197,24 +2198,24 @@
         <v>1</v>
       </c>
       <c r="F37" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G37" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="H37" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="H37" s="15" t="s">
+      <c r="I37" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="I37" s="15" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="91" x14ac:dyDescent="0.15">
+    </row>
+    <row r="38" spans="1:9" ht="26" x14ac:dyDescent="0.15">
       <c r="B38">
         <v>5</v>
       </c>
       <c r="C38" t="s">
-        <v>148</v>
+        <v>10</v>
       </c>
       <c r="D38">
         <v>2</v>
@@ -2223,24 +2224,24 @@
         <v>1</v>
       </c>
       <c r="F38" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G38" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H38" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="I38" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="H38" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="I38" s="12" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" s="13" customFormat="1" ht="91" x14ac:dyDescent="0.15">
+    </row>
+    <row r="39" spans="1:9" s="13" customFormat="1" ht="26" x14ac:dyDescent="0.15">
       <c r="B39" s="13">
         <v>6</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>148</v>
+        <v>10</v>
       </c>
       <c r="D39" s="13">
         <v>2</v>
@@ -2249,24 +2250,24 @@
         <v>1</v>
       </c>
       <c r="F39" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="G39" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="G39" s="15" t="s">
+      <c r="H39" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="H39" s="15" t="s">
+      <c r="I39" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="I39" s="15" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="169" x14ac:dyDescent="0.15">
+    </row>
+    <row r="40" spans="1:9" ht="52" x14ac:dyDescent="0.15">
       <c r="B40">
         <v>7</v>
       </c>
       <c r="C40" t="s">
-        <v>148</v>
+        <v>10</v>
       </c>
       <c r="D40">
         <v>2</v>
@@ -2275,24 +2276,24 @@
         <v>1</v>
       </c>
       <c r="F40" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G40" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="I40" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="H40" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="I40" s="12" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="143" x14ac:dyDescent="0.15">
+    </row>
+    <row r="41" spans="1:9" ht="39" x14ac:dyDescent="0.15">
       <c r="B41">
         <v>8</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D41" s="13">
         <v>2</v>
@@ -2301,24 +2302,24 @@
         <v>1</v>
       </c>
       <c r="F41" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G41" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="H41" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="H41" s="12" t="s">
+      <c r="I41" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="I41" s="12" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" s="13" customFormat="1" ht="104" x14ac:dyDescent="0.15">
+    </row>
+    <row r="42" spans="1:9" s="13" customFormat="1" ht="26" x14ac:dyDescent="0.15">
       <c r="B42" s="13">
         <v>9</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>148</v>
+        <v>10</v>
       </c>
       <c r="D42" s="13">
         <v>3</v>
@@ -2327,24 +2328,24 @@
         <v>1</v>
       </c>
       <c r="F42" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G42" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="G42" s="15" t="s">
+      <c r="H42" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="H42" s="15" t="s">
+      <c r="I42" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="I42" s="15" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="130" x14ac:dyDescent="0.15">
+    </row>
+    <row r="43" spans="1:9" ht="39" x14ac:dyDescent="0.15">
       <c r="B43">
         <v>10</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>148</v>
+        <v>10</v>
       </c>
       <c r="D43" s="13">
         <v>3</v>
@@ -2353,24 +2354,24 @@
         <v>1</v>
       </c>
       <c r="F43" t="s">
+        <v>55</v>
+      </c>
+      <c r="G43" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="G43" s="12" t="s">
+      <c r="H43" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="H43" s="12" t="s">
+      <c r="I43" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="I43" s="12" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="117" x14ac:dyDescent="0.15">
+    </row>
+    <row r="44" spans="1:9" ht="39" x14ac:dyDescent="0.15">
       <c r="B44">
         <v>11</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>148</v>
+        <v>10</v>
       </c>
       <c r="D44" s="13">
         <v>3</v>
@@ -2379,24 +2380,24 @@
         <v>1</v>
       </c>
       <c r="F44" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G44" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="H44" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="H44" s="12" t="s">
+      <c r="I44" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="I44" s="12" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" ht="65" x14ac:dyDescent="0.15">
+    </row>
+    <row r="45" spans="1:9" ht="26" x14ac:dyDescent="0.15">
       <c r="B45">
         <v>12</v>
       </c>
       <c r="C45" s="13" t="s">
-        <v>148</v>
+        <v>10</v>
       </c>
       <c r="D45" s="13">
         <v>3</v>
@@ -2405,497 +2406,566 @@
         <v>1</v>
       </c>
       <c r="F45" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G45" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H45" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I45" s="12"/>
     </row>
-    <row r="46" spans="1:9" s="16" customFormat="1" ht="130" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:9" s="16" customFormat="1" ht="39" x14ac:dyDescent="0.15">
       <c r="B46">
         <v>13</v>
       </c>
+      <c r="C46" s="16" t="s">
+        <v>149</v>
+      </c>
       <c r="E46" s="14">
         <v>2</v>
       </c>
       <c r="F46" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G46" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="H46" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="H46" s="15" t="s">
+      <c r="I46" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="I46" s="15" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" s="16" customFormat="1" ht="143" x14ac:dyDescent="0.15">
+    </row>
+    <row r="47" spans="1:9" s="16" customFormat="1" ht="52" x14ac:dyDescent="0.15">
       <c r="B47">
         <v>14</v>
       </c>
+      <c r="C47" s="16" t="s">
+        <v>149</v>
+      </c>
       <c r="E47" s="17">
         <v>2</v>
       </c>
       <c r="F47" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G47" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="H47" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="H47" s="18" t="s">
+      <c r="I47" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="I47" s="18" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" s="16" customFormat="1" ht="117" x14ac:dyDescent="0.15">
+    </row>
+    <row r="48" spans="1:9" s="16" customFormat="1" ht="39" x14ac:dyDescent="0.15">
       <c r="B48">
         <v>15</v>
       </c>
+      <c r="C48" s="16" t="s">
+        <v>149</v>
+      </c>
       <c r="E48" s="17">
         <v>2</v>
       </c>
       <c r="F48" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G48" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="H48" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="H48" s="18" t="s">
+      <c r="I48" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="I48" s="18" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="49" spans="2:9" s="16" customFormat="1" ht="156" x14ac:dyDescent="0.15">
+    </row>
+    <row r="49" spans="2:9" s="16" customFormat="1" ht="52" x14ac:dyDescent="0.15">
       <c r="B49">
         <v>16</v>
       </c>
+      <c r="C49" s="16" t="s">
+        <v>149</v>
+      </c>
       <c r="E49" s="17">
         <v>2</v>
       </c>
       <c r="F49" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G49" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="H49" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="I49" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="H49" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="I49" s="18" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="50" spans="2:9" s="19" customFormat="1" ht="117" x14ac:dyDescent="0.15">
+    </row>
+    <row r="50" spans="2:9" s="19" customFormat="1" ht="39" x14ac:dyDescent="0.15">
       <c r="B50" s="16">
         <v>23</v>
       </c>
+      <c r="C50" s="19" t="s">
+        <v>149</v>
+      </c>
       <c r="E50" s="20">
         <v>2</v>
       </c>
       <c r="F50" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="G50" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="G50" s="22" t="s">
+      <c r="H50" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="H50" s="22" t="s">
+      <c r="I50" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="I50" s="22" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="51" spans="2:9" s="19" customFormat="1" ht="117" x14ac:dyDescent="0.15">
+    </row>
+    <row r="51" spans="2:9" s="19" customFormat="1" ht="39" x14ac:dyDescent="0.15">
       <c r="B51" s="16">
         <v>24</v>
       </c>
+      <c r="C51" s="19" t="s">
+        <v>149</v>
+      </c>
       <c r="E51" s="23">
         <v>2</v>
       </c>
       <c r="F51" s="19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G51" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="H51" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="I51" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="H51" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="I51" s="24" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="52" spans="2:9" s="25" customFormat="1" ht="273" x14ac:dyDescent="0.15">
+    </row>
+    <row r="52" spans="2:9" s="25" customFormat="1" ht="78" x14ac:dyDescent="0.15">
       <c r="B52" s="25">
         <v>17</v>
       </c>
+      <c r="C52" s="25" t="s">
+        <v>149</v>
+      </c>
       <c r="E52" s="26">
         <v>3</v>
       </c>
       <c r="F52" s="25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G52" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="H52" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="H52" s="27" t="s">
+      <c r="I52" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="I52" s="27" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="53" spans="2:9" s="25" customFormat="1" ht="156" x14ac:dyDescent="0.15">
+    </row>
+    <row r="53" spans="2:9" s="25" customFormat="1" ht="52" x14ac:dyDescent="0.15">
       <c r="B53" s="25">
         <v>18</v>
       </c>
+      <c r="C53" s="25" t="s">
+        <v>149</v>
+      </c>
       <c r="E53" s="26">
         <v>3</v>
       </c>
       <c r="F53" s="25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G53" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="H53" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="H53" s="27" t="s">
+      <c r="I53" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="I53" s="27" t="s">
+    </row>
+    <row r="54" spans="2:9" s="25" customFormat="1" ht="39" x14ac:dyDescent="0.15">
+      <c r="B54">
+        <v>21</v>
+      </c>
+      <c r="C54" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="E54" s="14">
+        <v>3</v>
+      </c>
+      <c r="F54" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="G54" s="15" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="E54"/>
-    </row>
-    <row r="56" spans="2:9" s="25" customFormat="1" ht="117" x14ac:dyDescent="0.15">
-      <c r="B56">
-        <v>21</v>
+      <c r="H54" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="I54" s="15" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9" s="25" customFormat="1" ht="52" x14ac:dyDescent="0.15">
+      <c r="B55">
+        <v>22</v>
+      </c>
+      <c r="C55" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="E55" s="26">
+        <v>3</v>
+      </c>
+      <c r="F55" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="G55" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="H55" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="I55" s="27" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9" s="25" customFormat="1" ht="39" x14ac:dyDescent="0.15">
+      <c r="B56" s="25">
+        <v>25</v>
+      </c>
+      <c r="C56" s="25" t="s">
+        <v>149</v>
       </c>
       <c r="E56" s="14">
         <v>3</v>
       </c>
       <c r="F56" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G56" s="15" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="H56" s="15" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="I56" s="15" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="57" spans="2:9" s="25" customFormat="1" ht="169" x14ac:dyDescent="0.15">
-      <c r="B57">
-        <v>22</v>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9" s="25" customFormat="1" ht="52" x14ac:dyDescent="0.15">
+      <c r="B57" s="25">
+        <v>26</v>
+      </c>
+      <c r="C57" s="25" t="s">
+        <v>149</v>
       </c>
       <c r="E57" s="26">
         <v>3</v>
       </c>
       <c r="F57" s="25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G57" s="27" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="H57" s="27" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="I57" s="27" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="58" spans="2:9" s="25" customFormat="1" ht="117" x14ac:dyDescent="0.15">
-      <c r="B58" s="25">
-        <v>25</v>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9" s="28" customFormat="1" ht="39" x14ac:dyDescent="0.15">
+      <c r="B58" s="28">
+        <v>27</v>
+      </c>
+      <c r="C58" s="28" t="s">
+        <v>149</v>
       </c>
       <c r="E58" s="14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F58" s="13" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G58" s="15" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="H58" s="15" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="I58" s="15" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="59" spans="2:9" s="25" customFormat="1" ht="182" x14ac:dyDescent="0.15">
-      <c r="B59" s="25">
-        <v>26</v>
-      </c>
-      <c r="E59" s="26">
-        <v>3</v>
-      </c>
-      <c r="F59" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="G59" s="27" t="s">
-        <v>95</v>
-      </c>
-      <c r="H59" s="27" t="s">
-        <v>93</v>
-      </c>
-      <c r="I59" s="27" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="60" spans="2:9" s="28" customFormat="1" ht="117" x14ac:dyDescent="0.15">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9" s="28" customFormat="1" ht="39" x14ac:dyDescent="0.15">
+      <c r="B59" s="28">
+        <v>28</v>
+      </c>
+      <c r="C59" s="28" t="s">
+        <v>149</v>
+      </c>
+      <c r="E59" s="29">
+        <v>4</v>
+      </c>
+      <c r="F59" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="G59" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="H59" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="I59" s="30" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9" s="28" customFormat="1" ht="39" x14ac:dyDescent="0.15">
       <c r="B60" s="28">
-        <v>27</v>
+        <v>19</v>
+      </c>
+      <c r="C60" s="28" t="s">
+        <v>149</v>
       </c>
       <c r="E60" s="14">
         <v>4</v>
       </c>
       <c r="F60" s="13" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G60" s="15" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H60" s="15" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="I60" s="15" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="61" spans="2:9" s="28" customFormat="1" ht="104" x14ac:dyDescent="0.15">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="61" spans="2:9" s="28" customFormat="1" ht="26" x14ac:dyDescent="0.15">
       <c r="B61" s="28">
-        <v>28</v>
+        <v>20</v>
+      </c>
+      <c r="C61" s="28" t="s">
+        <v>149</v>
       </c>
       <c r="E61" s="29">
         <v>4</v>
       </c>
       <c r="F61" s="28" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G61" s="30" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="H61" s="30" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="I61" s="30" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="62" spans="2:9" s="28" customFormat="1" ht="104" x14ac:dyDescent="0.15">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="62" spans="2:9" s="28" customFormat="1" ht="39" x14ac:dyDescent="0.15">
       <c r="B62" s="28">
-        <v>19</v>
-      </c>
-      <c r="E62" s="14">
+        <v>29</v>
+      </c>
+      <c r="C62" s="28" t="s">
+        <v>149</v>
+      </c>
+      <c r="E62" s="29">
         <v>4</v>
       </c>
-      <c r="F62" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="G62" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="H62" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="I62" s="15" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="63" spans="2:9" s="28" customFormat="1" ht="91" x14ac:dyDescent="0.15">
+      <c r="F62" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="G62" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="H62" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="I62" s="30" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="63" spans="2:9" s="28" customFormat="1" ht="39" x14ac:dyDescent="0.15">
       <c r="B63" s="28">
-        <v>20</v>
+        <v>30</v>
+      </c>
+      <c r="C63" s="28" t="s">
+        <v>149</v>
       </c>
       <c r="E63" s="29">
         <v>4</v>
       </c>
       <c r="F63" s="28" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="G63" s="30" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="H63" s="30" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="I63" s="30" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="64" spans="2:9" s="28" customFormat="1" ht="156" x14ac:dyDescent="0.15">
-      <c r="B64" s="28">
-        <v>29</v>
-      </c>
-      <c r="E64" s="29">
-        <v>4</v>
-      </c>
-      <c r="F64" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="G64" s="30" t="s">
-        <v>105</v>
-      </c>
-      <c r="H64" s="30" t="s">
-        <v>106</v>
-      </c>
-      <c r="I64" s="30" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="65" spans="2:9" s="28" customFormat="1" ht="143" x14ac:dyDescent="0.15">
-      <c r="B65" s="28">
-        <v>30</v>
-      </c>
-      <c r="E65" s="29">
-        <v>4</v>
-      </c>
-      <c r="F65" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="G65" s="30" t="s">
-        <v>108</v>
-      </c>
-      <c r="H65" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="I65" s="30" t="s">
+    </row>
+    <row r="64" spans="2:9" ht="39" x14ac:dyDescent="0.15">
+      <c r="B64">
+        <v>31</v>
+      </c>
+      <c r="C64" s="28" t="s">
+        <v>149</v>
+      </c>
+      <c r="E64" s="1" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="66" spans="2:9" ht="130" x14ac:dyDescent="0.15">
+      <c r="F64" t="s">
+        <v>51</v>
+      </c>
+      <c r="G64" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="H64" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="I64" s="12" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9" ht="39" x14ac:dyDescent="0.15">
+      <c r="B65">
+        <v>32</v>
+      </c>
+      <c r="C65" s="28" t="s">
+        <v>149</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F65" t="s">
+        <v>32</v>
+      </c>
+      <c r="G65" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="H65" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="I65" s="12" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9" ht="39" x14ac:dyDescent="0.15">
       <c r="B66">
-        <v>31</v>
+        <v>33</v>
+      </c>
+      <c r="C66" s="28" t="s">
+        <v>149</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F66" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="G66" s="12" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="H66" s="12" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="I66" s="12" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="67" spans="2:9" ht="130" x14ac:dyDescent="0.15">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="67" spans="2:9" ht="39" x14ac:dyDescent="0.15">
       <c r="B67">
-        <v>32</v>
+        <v>34</v>
+      </c>
+      <c r="C67" s="28" t="s">
+        <v>149</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F67" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="G67" s="12" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="H67" s="12" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="I67" s="12" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="68" spans="2:9" ht="130" x14ac:dyDescent="0.15">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="68" spans="2:9" ht="26" x14ac:dyDescent="0.15">
       <c r="B68">
-        <v>33</v>
+        <v>35</v>
+      </c>
+      <c r="C68" s="28" t="s">
+        <v>149</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="F68" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G68" s="12" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="H68" s="12" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="I68" s="12" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="69" spans="2:9" ht="130" x14ac:dyDescent="0.15">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="69" spans="2:9" ht="52" x14ac:dyDescent="0.15">
       <c r="B69">
-        <v>34</v>
+        <v>36</v>
+      </c>
+      <c r="C69" s="28" t="s">
+        <v>149</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="F69" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G69" s="12" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="H69" s="12" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="I69" s="12" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="70" spans="2:9" ht="78" x14ac:dyDescent="0.15">
-      <c r="B70">
-        <v>35</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="F70" t="s">
-        <v>43</v>
-      </c>
-      <c r="G70" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="H70" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="I70" s="12" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="71" spans="2:9" ht="156" x14ac:dyDescent="0.15">
-      <c r="B71">
-        <v>36</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="F71" t="s">
-        <v>56</v>
-      </c>
-      <c r="G71" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="H71" s="12" t="s">
         <v>129</v>
-      </c>
-      <c r="I71" s="12" t="s">
-        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -2921,21 +2991,21 @@
   <sheetData>
     <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B2" s="31"/>
       <c r="C2" s="2"/>
@@ -2947,7 +3017,7 @@
     </row>
     <row r="3" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B3" s="31"/>
       <c r="C3" s="2"/>
@@ -2959,7 +3029,7 @@
     </row>
     <row r="4" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B4" s="31"/>
       <c r="C4" s="2"/>
@@ -2981,7 +3051,7 @@
     </row>
     <row r="6" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B6" s="32">
         <v>23</v>
@@ -2995,7 +3065,7 @@
     </row>
     <row r="7" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B7" s="32">
         <f t="shared" ref="B7:B13" si="0">B6</f>
@@ -3010,7 +3080,7 @@
     </row>
     <row r="8" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B8" s="32">
         <f t="shared" si="0"/>
@@ -3025,7 +3095,7 @@
     </row>
     <row r="9" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B9" s="32">
         <f t="shared" si="0"/>
@@ -3040,7 +3110,7 @@
     </row>
     <row r="10" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B10" s="32">
         <f t="shared" si="0"/>
@@ -3055,7 +3125,7 @@
     </row>
     <row r="11" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B11" s="32">
         <f t="shared" si="0"/>
@@ -3070,7 +3140,7 @@
     </row>
     <row r="12" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B12" s="32">
         <f t="shared" si="0"/>
@@ -3085,7 +3155,7 @@
     </row>
     <row r="13" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B13" s="32">
         <f t="shared" si="0"/>
@@ -3110,28 +3180,28 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="B15" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="10" t="s">
+      <c r="D15" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="E15" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="E15" s="10" t="s">
+      <c r="F15" s="10" t="s">
         <v>146</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>147</v>
       </c>
       <c r="G15" s="10" t="s">
         <v>7</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
